--- a/Planning.xlsx
+++ b/Planning.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19620" windowHeight="12375"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19620" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sketches" sheetId="1" r:id="rId1"/>
+    <sheet name="Combinations" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="28">
   <si>
     <t>╔</t>
   </si>
@@ -84,6 +85,30 @@
   </si>
   <si>
     <t>╫</t>
+  </si>
+  <si>
+    <t>Worst case in 16x16</t>
+  </si>
+  <si>
+    <t>Worst case in 9 x 9</t>
+  </si>
+  <si>
+    <t>nCr</t>
+  </si>
+  <si>
+    <t>(n-r)!</t>
+  </si>
+  <si>
+    <t>r!</t>
+  </si>
+  <si>
+    <t>n!</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -227,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -246,6 +271,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -530,7 +558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AH34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AJ6" sqref="AJ6"/>
     </sheetView>
   </sheetViews>
@@ -1595,4 +1623,609 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <f>FACT(A2)</f>
+        <v>362880</v>
+      </c>
+      <c r="D2">
+        <f>FACT(B2)</f>
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <f>FACT(A2-B2)</f>
+        <v>40320</v>
+      </c>
+      <c r="F2">
+        <f>C2/(D2*E2)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <f>FACT(A3)</f>
+        <v>362880</v>
+      </c>
+      <c r="D3">
+        <f>FACT(B3)</f>
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <f>FACT(A3-B3)</f>
+        <v>5040</v>
+      </c>
+      <c r="F3">
+        <f>C3/(D3*E3)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <f>FACT(A4)</f>
+        <v>362880</v>
+      </c>
+      <c r="D4">
+        <f>FACT(B4)</f>
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <f>FACT(A4-B4)</f>
+        <v>720</v>
+      </c>
+      <c r="F4">
+        <f>C4/(D4*E4)</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <f>FACT(A5)</f>
+        <v>362880</v>
+      </c>
+      <c r="D5">
+        <f>FACT(B5)</f>
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <f>FACT(A5-B5)</f>
+        <v>120</v>
+      </c>
+      <c r="F5">
+        <f>C5/(D5*E5)</f>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <f>FACT(A6)</f>
+        <v>362880</v>
+      </c>
+      <c r="D6">
+        <f>FACT(B6)</f>
+        <v>120</v>
+      </c>
+      <c r="E6">
+        <f>FACT(A6-B6)</f>
+        <v>24</v>
+      </c>
+      <c r="F6">
+        <f>C6/(D6*E6)</f>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <f>FACT(A7)</f>
+        <v>362880</v>
+      </c>
+      <c r="D7">
+        <f>FACT(B7)</f>
+        <v>720</v>
+      </c>
+      <c r="E7">
+        <f>FACT(A7-B7)</f>
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <f>C7/(D7*E7)</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <f>FACT(A8)</f>
+        <v>362880</v>
+      </c>
+      <c r="D8">
+        <f>FACT(B8)</f>
+        <v>5040</v>
+      </c>
+      <c r="E8">
+        <f>FACT(A8-B8)</f>
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <f>C8/(D8*E8)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <f>FACT(A9)</f>
+        <v>362880</v>
+      </c>
+      <c r="D9">
+        <f>FACT(B9)</f>
+        <v>40320</v>
+      </c>
+      <c r="E9">
+        <f>FACT(A9-B9)</f>
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <f>C9/(D9*E9)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <f>SUM(F2:F9)</f>
+        <v>510</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <f>FACT(A12)</f>
+        <v>20922789888000</v>
+      </c>
+      <c r="D12">
+        <f>FACT(B12)</f>
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <f>FACT(A12-B12)</f>
+        <v>1307674368000</v>
+      </c>
+      <c r="F12">
+        <f>C12/(D12*E12)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <f>FACT(A13)</f>
+        <v>20922789888000</v>
+      </c>
+      <c r="D13">
+        <f>FACT(B13)</f>
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <f>FACT(A13-B13)</f>
+        <v>87178291200</v>
+      </c>
+      <c r="F13">
+        <f>C13/(D13*E13)</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <f>FACT(A14)</f>
+        <v>20922789888000</v>
+      </c>
+      <c r="D14">
+        <f>FACT(B14)</f>
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <f>FACT(A14-B14)</f>
+        <v>6227020800</v>
+      </c>
+      <c r="F14">
+        <f>C14/(D14*E14)</f>
+        <v>560</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <f>FACT(A15)</f>
+        <v>20922789888000</v>
+      </c>
+      <c r="D15">
+        <f>FACT(B15)</f>
+        <v>24</v>
+      </c>
+      <c r="E15">
+        <f>FACT(A15-B15)</f>
+        <v>479001600</v>
+      </c>
+      <c r="F15">
+        <f>C15/(D15*E15)</f>
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <f>FACT(A16)</f>
+        <v>20922789888000</v>
+      </c>
+      <c r="D16">
+        <f>FACT(B16)</f>
+        <v>120</v>
+      </c>
+      <c r="E16">
+        <f>FACT(A16-B16)</f>
+        <v>39916800</v>
+      </c>
+      <c r="F16">
+        <f>C16/(D16*E16)</f>
+        <v>4368</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <f>FACT(A17)</f>
+        <v>20922789888000</v>
+      </c>
+      <c r="D17">
+        <f>FACT(B17)</f>
+        <v>720</v>
+      </c>
+      <c r="E17">
+        <f>FACT(A17-B17)</f>
+        <v>3628800</v>
+      </c>
+      <c r="F17">
+        <f>C17/(D17*E17)</f>
+        <v>8008</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <f>FACT(A18)</f>
+        <v>20922789888000</v>
+      </c>
+      <c r="D18">
+        <f>FACT(B18)</f>
+        <v>5040</v>
+      </c>
+      <c r="E18">
+        <f>FACT(A18-B18)</f>
+        <v>362880</v>
+      </c>
+      <c r="F18">
+        <f>C18/(D18*E18)</f>
+        <v>11440</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <f>FACT(A19)</f>
+        <v>20922789888000</v>
+      </c>
+      <c r="D19">
+        <f>FACT(B19)</f>
+        <v>40320</v>
+      </c>
+      <c r="E19">
+        <f>FACT(A19-B19)</f>
+        <v>40320</v>
+      </c>
+      <c r="F19">
+        <f>C19/(D19*E19)</f>
+        <v>12870</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <f>FACT(A20)</f>
+        <v>20922789888000</v>
+      </c>
+      <c r="D20">
+        <f>FACT(B20)</f>
+        <v>362880</v>
+      </c>
+      <c r="E20">
+        <f>FACT(A20-B20)</f>
+        <v>5040</v>
+      </c>
+      <c r="F20">
+        <f>C20/(D20*E20)</f>
+        <v>11440</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>16</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <f>FACT(A21)</f>
+        <v>20922789888000</v>
+      </c>
+      <c r="D21">
+        <f>FACT(B21)</f>
+        <v>3628800</v>
+      </c>
+      <c r="E21">
+        <f>FACT(A21-B21)</f>
+        <v>720</v>
+      </c>
+      <c r="F21">
+        <f>C21/(D21*E21)</f>
+        <v>8008</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>11</v>
+      </c>
+      <c r="C22">
+        <f>FACT(A22)</f>
+        <v>20922789888000</v>
+      </c>
+      <c r="D22">
+        <f>FACT(B22)</f>
+        <v>39916800</v>
+      </c>
+      <c r="E22">
+        <f>FACT(A22-B22)</f>
+        <v>120</v>
+      </c>
+      <c r="F22">
+        <f>C22/(D22*E22)</f>
+        <v>4368</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>16</v>
+      </c>
+      <c r="B23">
+        <v>12</v>
+      </c>
+      <c r="C23">
+        <f>FACT(A23)</f>
+        <v>20922789888000</v>
+      </c>
+      <c r="D23">
+        <f>FACT(B23)</f>
+        <v>479001600</v>
+      </c>
+      <c r="E23">
+        <f>FACT(A23-B23)</f>
+        <v>24</v>
+      </c>
+      <c r="F23">
+        <f>C23/(D23*E23)</f>
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>16</v>
+      </c>
+      <c r="B24">
+        <v>13</v>
+      </c>
+      <c r="C24">
+        <f>FACT(A24)</f>
+        <v>20922789888000</v>
+      </c>
+      <c r="D24">
+        <f>FACT(B24)</f>
+        <v>6227020800</v>
+      </c>
+      <c r="E24">
+        <f>FACT(A24-B24)</f>
+        <v>6</v>
+      </c>
+      <c r="F24">
+        <f>C24/(D24*E24)</f>
+        <v>560</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>16</v>
+      </c>
+      <c r="B25">
+        <v>14</v>
+      </c>
+      <c r="C25">
+        <f>FACT(A25)</f>
+        <v>20922789888000</v>
+      </c>
+      <c r="D25">
+        <f>FACT(B25)</f>
+        <v>87178291200</v>
+      </c>
+      <c r="E25">
+        <f>FACT(A25-B25)</f>
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <f>C25/(D25*E25)</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>16</v>
+      </c>
+      <c r="B26">
+        <v>15</v>
+      </c>
+      <c r="C26">
+        <f>FACT(A26)</f>
+        <v>20922789888000</v>
+      </c>
+      <c r="D26">
+        <f>FACT(B26)</f>
+        <v>1307674368000</v>
+      </c>
+      <c r="E26">
+        <f>FACT(A26-B26)</f>
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <f>C26/(D26*E26)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <f>SUM(F12:F26)</f>
+        <v>65534</v>
+      </c>
+      <c r="G27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>